--- a/emotions.xlsx
+++ b/emotions.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Udyan Sharma\Documents\GitHub\python-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C07844-E3B0-4199-9C3F-2EDC571EF475}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B39800-56E6-43FF-850E-23A2CFB7EF80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2193F49B-5B81-4659-942C-083E23AF7CBB}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" xr2:uid="{2193F49B-5B81-4659-942C-083E23AF7CBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="299">
   <si>
     <t>Angry</t>
   </si>
@@ -36,10 +36,28 @@
     <t>Love</t>
   </si>
   <si>
+    <t>Fear</t>
+  </si>
+  <si>
     <t>Joy</t>
   </si>
   <si>
-    <t>Fear</t>
+    <t>Response_Anger</t>
+  </si>
+  <si>
+    <t>Response_Sad</t>
+  </si>
+  <si>
+    <t>Response_Love</t>
+  </si>
+  <si>
+    <t>Response_Fear</t>
+  </si>
+  <si>
+    <t>Response_Joy</t>
+  </si>
+  <si>
+    <t>I am angry</t>
   </si>
   <si>
     <t>I am sad</t>
@@ -51,12 +69,24 @@
     <t>I am afraid</t>
   </si>
   <si>
-    <t>I am angry</t>
-  </si>
-  <si>
     <t>I'm happy</t>
   </si>
   <si>
+    <t>relax lets figure it out</t>
+  </si>
+  <si>
+    <t>I'm so sorry to hear that. Is there any way I can help?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is an amazing feeling isn't it? </t>
+  </si>
+  <si>
+    <t>Let's relax for a second and figure it out. Think How can we tackle this problem?</t>
+  </si>
+  <si>
+    <t>I am so happy for you its time for celebration I guess</t>
+  </si>
+  <si>
     <t>It is such a bad day</t>
   </si>
   <si>
@@ -69,9 +99,6 @@
     <t>It's a great day today</t>
   </si>
   <si>
-    <t>I'm very angry</t>
-  </si>
-  <si>
     <t>It is so bad</t>
   </si>
   <si>
@@ -84,29 +111,824 @@
     <t>I got good marks today</t>
   </si>
   <si>
+    <t>angry</t>
+  </si>
+  <si>
     <t>I am very sad</t>
   </si>
   <si>
-    <t>I'm furious</t>
-  </si>
-  <si>
-    <t>kjnvkjnd</t>
-  </si>
-  <si>
-    <t>sjdvnjkdn</t>
-  </si>
-  <si>
-    <t>sdvjkdsv</t>
-  </si>
-  <si>
-    <t>snsjkj</t>
+    <t>i will never give up us</t>
+  </si>
+  <si>
+    <t>scare the hell out of me</t>
+  </si>
+  <si>
+    <t>it makes me furious</t>
+  </si>
+  <si>
+    <t>drenched with shame</t>
+  </si>
+  <si>
+    <t>I want to make memories with</t>
+  </si>
+  <si>
+    <t>give me goose bump</t>
+  </si>
+  <si>
+    <t>have a pleasent day</t>
+  </si>
+  <si>
+    <t>you definitely are mad</t>
+  </si>
+  <si>
+    <t>there was sadness in her voice</t>
+  </si>
+  <si>
+    <t>we love the things we love for what they are</t>
+  </si>
+  <si>
+    <t>send shivers down my spine</t>
+  </si>
+  <si>
+    <t>have a good day mate</t>
+  </si>
+  <si>
+    <t>i am doomed</t>
+  </si>
+  <si>
+    <t>and in her smile i see something more beautiful than the stars</t>
+  </si>
+  <si>
+    <t>getting 0 out of 10</t>
+  </si>
+  <si>
+    <t>finally a pleasent fucking day</t>
+  </si>
+  <si>
+    <t>nothing is possible</t>
+  </si>
+  <si>
+    <t>i knew the second i met you that there was something about you i needed turns out it wasn’t something about you at all it was just you</t>
+  </si>
+  <si>
+    <t>studies show that one of the greatest fears of the elderly is that they might become dependent on others</t>
+  </si>
+  <si>
+    <t>oh goddie</t>
+  </si>
+  <si>
+    <t>i am pissed off</t>
+  </si>
+  <si>
+    <t>tears</t>
+  </si>
+  <si>
+    <t>all that i ever need is him</t>
+  </si>
+  <si>
+    <t>the feeling of lossing to someone</t>
+  </si>
+  <si>
+    <t>that is very nice</t>
+  </si>
+  <si>
+    <t>stop!  now i am seething with rage</t>
+  </si>
+  <si>
+    <t>weaping</t>
+  </si>
+  <si>
+    <t>i love you without knowing how or when or from where i love you simply without problems or pride</t>
+  </si>
+  <si>
+    <t>the fear of getting picked up on the class</t>
+  </si>
+  <si>
+    <t>pleased as punch</t>
+  </si>
+  <si>
+    <t>i am livid right now</t>
+  </si>
+  <si>
+    <t>down in mouth</t>
+  </si>
+  <si>
+    <t>i love you as one loves certain dark things secretly between the shadow and the soul</t>
+  </si>
+  <si>
+    <t>the old man felt dread instantly after seeing those thiefs</t>
+  </si>
+  <si>
+    <t>good day</t>
+  </si>
+  <si>
+    <t>i lost my rag when the traffic warden gave me a ticket</t>
+  </si>
+  <si>
+    <t>down in dumps</t>
+  </si>
+  <si>
+    <t>i love how she makes me feel like anything is possible or like life is worth it</t>
+  </si>
+  <si>
+    <t>mummy</t>
+  </si>
+  <si>
+    <t>what a good day</t>
+  </si>
+  <si>
+    <t>i blew my top when the traffic warden gave me a ticket</t>
+  </si>
+  <si>
+    <t>reduce to tears</t>
+  </si>
+  <si>
+    <t>death cannot stop true love all it can do is delay it for a while</t>
+  </si>
+  <si>
+    <t>good god</t>
+  </si>
+  <si>
+    <t>it's so good to see you</t>
+  </si>
+  <si>
+    <t>i lost my temper</t>
+  </si>
+  <si>
+    <t>lump in throat</t>
+  </si>
+  <si>
+    <t>i want all of you forever you and me every day</t>
+  </si>
+  <si>
+    <t>that thing appeared out of nowhere and i got chills right away</t>
+  </si>
+  <si>
+    <t>in seventh heaven</t>
+  </si>
+  <si>
+    <t>shut your mouth</t>
+  </si>
+  <si>
+    <t>feeling blue</t>
+  </si>
+  <si>
+    <t>what do you want? you want the moon? just say the word and i'll throw a lasso around it and pull it down</t>
+  </si>
+  <si>
+    <t>i'm not afraid of death; i just don't want to be there when it happens</t>
+  </si>
+  <si>
+    <t>over the moon</t>
+  </si>
+  <si>
+    <t>stand by what you said</t>
+  </si>
+  <si>
+    <t>face like wet weekend</t>
+  </si>
+  <si>
+    <t>to love and be loved is to feel the sun from both sides</t>
+  </si>
+  <si>
+    <t>fear doesn't shut you down; it wakes you up</t>
+  </si>
+  <si>
+    <t>grinning from ear to ear</t>
+  </si>
+  <si>
+    <t>the ball is in my court</t>
+  </si>
+  <si>
+    <t>cried my eyes</t>
+  </si>
+  <si>
+    <t>i swear  couldn’t love yiou more than I do right now, and yet I know I will tomorrow</t>
+  </si>
+  <si>
+    <t>fear of a name increases fear of the thing itself</t>
+  </si>
+  <si>
+    <t>i cherish</t>
+  </si>
+  <si>
+    <t>you can't win</t>
+  </si>
+  <si>
+    <t>cried by heart out</t>
+  </si>
+  <si>
+    <t>If you live to be a hundred, i want to live to be a hundred minus one day so i never have to live without you</t>
+  </si>
+  <si>
+    <t>expose yourself to your deepest fear after that fear has no power and the fear of freedom shrinks and vanishes you are free</t>
+  </si>
+  <si>
+    <t>i can't believe it</t>
+  </si>
+  <si>
+    <t>i will show you your place</t>
+  </si>
+  <si>
+    <t>sorry state</t>
+  </si>
+  <si>
+    <t>a man is already halfway in love with any woman who listens to him.</t>
+  </si>
+  <si>
+    <t>don't give in to your fears if you do you won't be able to talk to your heart</t>
+  </si>
+  <si>
+    <t>i am very delighted</t>
+  </si>
+  <si>
+    <t>not in your dreams</t>
+  </si>
+  <si>
+    <t>heart broken</t>
+  </si>
+  <si>
+    <t>i love you as certain dark things are to be loved, in secret, between the shadow and the soul.</t>
+  </si>
+  <si>
+    <t>no one ever told me that grief felt so like fear</t>
+  </si>
+  <si>
+    <t>congratulations</t>
+  </si>
+  <si>
+    <t>shame on you</t>
+  </si>
+  <si>
+    <t>heavy heart</t>
+  </si>
+  <si>
+    <t>love is that condition in which the happiness of another person is essential to your own</t>
+  </si>
+  <si>
+    <t>cared is what you're feeling brave is what you're doing</t>
+  </si>
+  <si>
+    <t>back on your feet</t>
+  </si>
+  <si>
+    <t>no guilt at all</t>
+  </si>
+  <si>
+    <t>fall to peices</t>
+  </si>
+  <si>
+    <t>to love is to burn, to be on fire</t>
+  </si>
+  <si>
+    <t>It is extremely scary</t>
+  </si>
+  <si>
+    <t>happy as a clam</t>
+  </si>
+  <si>
+    <t>that's what you are</t>
+  </si>
+  <si>
+    <t>fall apart</t>
+  </si>
+  <si>
+    <t>pleasure of love lasts but a moment. pain of love lasts a lifetime.</t>
+  </si>
+  <si>
+    <t>that horror movie scared me</t>
+  </si>
+  <si>
+    <t>jaw dropping</t>
+  </si>
+  <si>
+    <t>that's your trait</t>
+  </si>
+  <si>
+    <t>knocked sideways</t>
+  </si>
+  <si>
+    <t>love is a thing that is full of cares and fears.</t>
+  </si>
+  <si>
+    <t>I'm not afraid of death; i just don't want to be there when it happens</t>
+  </si>
+  <si>
+    <t>best day ever</t>
+  </si>
+  <si>
+    <t>that's your character</t>
+  </si>
+  <si>
+    <t>feeling down</t>
+  </si>
+  <si>
+    <t>love is not love until love’s vulnerable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> scared me to half death</t>
+  </si>
+  <si>
+    <t>choose your nook</t>
+  </si>
+  <si>
+    <t>feeling low</t>
+  </si>
+  <si>
+    <t>my wish is that you may be loved to the point of madness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">terrifying </t>
+  </si>
+  <si>
+    <t>don't be seen</t>
+  </si>
+  <si>
+    <t>nothing could explain the sadness she felt at that discovery</t>
+  </si>
+  <si>
+    <t>romance is the glamour which turns the dust of everyday life into a golden haze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shivers down my spine </t>
+  </si>
+  <si>
+    <t>you can't be loved</t>
+  </si>
+  <si>
+    <t>her sadness had nothing to do with not appreciating their fortune</t>
+  </si>
+  <si>
+    <t>one word frees us of all the weight and pain of life: that word is love.</t>
+  </si>
+  <si>
+    <t>the hairs on the back of my neck stand up</t>
+  </si>
+  <si>
+    <t>that's the end</t>
+  </si>
+  <si>
+    <t>my heart is too full of sadness to dwell upon the happiness the summer has brought me</t>
+  </si>
+  <si>
+    <t>we must be our own before we can be another’s.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">afraid </t>
+  </si>
+  <si>
+    <t>enough</t>
+  </si>
+  <si>
+    <t>the sadness she felt as his truck disappeared down the road was borne of fear</t>
+  </si>
+  <si>
+    <t>the greatest thing you’ll ever learn is to love and be loved in return.</t>
+  </si>
+  <si>
+    <t>heebie jeebie</t>
+  </si>
+  <si>
+    <t>leave it</t>
+  </si>
+  <si>
+    <t>my heart melted the clouds of sadness and sin</t>
+  </si>
+  <si>
+    <t>the love we give away is the only love we keep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jumped out of my skin </t>
+  </si>
+  <si>
+    <t>you have no brains to understand</t>
+  </si>
+  <si>
+    <t>the mood in their is one of disbleif and of great sadness as well</t>
+  </si>
+  <si>
+    <t>Tell me whom you love and I will tell you who you are</t>
+  </si>
+  <si>
+    <t>heart missed a beat</t>
+  </si>
+  <si>
+    <t>trust your intuition and be guided by love</t>
+  </si>
+  <si>
+    <t>scared out of my wits</t>
+  </si>
+  <si>
+    <t>stay in your limits</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>That’s all nonviolence is – organized love.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scared the living daylights out of me </t>
+  </si>
+  <si>
+    <t>you are in the red zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depressed </t>
+  </si>
+  <si>
+    <t>love is the ultimate expression of the will to live.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quaking in my boots </t>
+  </si>
+  <si>
+    <t>children make the teacher hot under the collar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">betrayed </t>
+  </si>
+  <si>
+    <t>where there is love there is life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scared stiff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it makes me furious </t>
+  </si>
+  <si>
+    <t xml:space="preserve">he left me </t>
+  </si>
+  <si>
+    <t>a loving heart is the truest wisdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">batten down the hatches </t>
+  </si>
+  <si>
+    <t xml:space="preserve">you definitely are mad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">she left me </t>
+  </si>
+  <si>
+    <t>we accept the love we think we deserve.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dicey situation </t>
+  </si>
+  <si>
+    <t>this upsets me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am alone </t>
+  </si>
+  <si>
+    <t>a new command I give you: Love one another. As I have loved you, so you must love one anothe</t>
+  </si>
+  <si>
+    <t>risk life</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> i am pissed off </t>
+  </si>
+  <si>
+    <t>broke up</t>
+  </si>
+  <si>
+    <t>for small creatures such as we, the vastness is bearable only through love</t>
+  </si>
+  <si>
+    <t>scare the pants off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stop!  now i am seething with rage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I feel like dying </t>
+  </si>
+  <si>
+    <t>love is an irresistible desire to be irresistibly desired</t>
+  </si>
+  <si>
+    <t>cold sweat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I feel like going away </t>
+  </si>
+  <si>
+    <t>love makes your soul crawl out from its hiding place</t>
+  </si>
+  <si>
+    <t>heart in my mouth</t>
+  </si>
+  <si>
+    <t>I feel so lonely</t>
+  </si>
+  <si>
+    <t>i saw that you were perfect, and so i loved you. Then i saw that you were not perfect and i loved you even more</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heart sinking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">weeping </t>
+  </si>
+  <si>
+    <t>love is an ocean of emotions entirely surrounded by expenses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facing problems </t>
+  </si>
+  <si>
+    <t>love: a temporary insanity, curable by marriage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">children make the teacher hot under the collar </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I feel like crying </t>
+  </si>
+  <si>
+    <t>there is always some madness in love. But there is also always some reason in madness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">don't make my blood boil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it sucks </t>
+  </si>
+  <si>
+    <t>gravitation is not responsible for people falling in love</t>
+  </si>
+  <si>
+    <t>i am at the end of my tether if those children don't shut up i will</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heart in pieces </t>
+  </si>
+  <si>
+    <t xml:space="preserve">i feel like looking into his eyes forever </t>
+  </si>
+  <si>
+    <t xml:space="preserve">i have reached my limit i am about to lose my temper </t>
+  </si>
+  <si>
+    <t>heart sinks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i feel like looking into her eyes forever </t>
+  </si>
+  <si>
+    <t>right! that's the last straw be quiet now</t>
+  </si>
+  <si>
+    <t>heart sank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i love her voice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">you have pushed me over my limit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">broken </t>
+  </si>
+  <si>
+    <t xml:space="preserve">i love her smile </t>
+  </si>
+  <si>
+    <t>i won't tolerate this noise anymore</t>
+  </si>
+  <si>
+    <t>fallen into pieces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i love his smile </t>
+  </si>
+  <si>
+    <t>he really winds me up he is always asking for money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fallen apart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">i love his voice </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> he drives me up the wall </t>
+  </si>
+  <si>
+    <t xml:space="preserve">he is my world </t>
+  </si>
+  <si>
+    <t>he irritates or annoys me</t>
+  </si>
+  <si>
+    <t>love does not consist of gazing at each other, but in looking together in the same direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">don't repeat </t>
+  </si>
+  <si>
+    <t>kindness in words creates confidence. kindness in thinking creates profundity. kindness in giving creates love</t>
+  </si>
+  <si>
+    <t>stop this for heaven's sake</t>
+  </si>
+  <si>
+    <t>marry</t>
+  </si>
+  <si>
+    <t>stop nagging beyond limits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">holding hands </t>
+  </si>
+  <si>
+    <t>cut it out</t>
+  </si>
+  <si>
+    <t>deeply in love</t>
+  </si>
+  <si>
+    <t>leave me alone</t>
+  </si>
+  <si>
+    <t>love him soo much</t>
+  </si>
+  <si>
+    <t>get lost</t>
+  </si>
+  <si>
+    <t>love her soo much</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get out of here </t>
+  </si>
+  <si>
+    <t>special bond</t>
+  </si>
+  <si>
+    <t>don't eat my head</t>
+  </si>
+  <si>
+    <t>have a connection between us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you are rude </t>
+  </si>
+  <si>
+    <t>touched my soul</t>
+  </si>
+  <si>
+    <t>don't mess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">match made in heaven </t>
+  </si>
+  <si>
+    <t>you’re asking for trouble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lovey dovey </t>
+  </si>
+  <si>
+    <t>don’t make me say it again</t>
+  </si>
+  <si>
+    <t>soft spot</t>
+  </si>
+  <si>
+    <t>im warning you for the last time</t>
+  </si>
+  <si>
+    <t>crush on him</t>
+  </si>
+  <si>
+    <t>i don’t want to see your face again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crush on her </t>
+  </si>
+  <si>
+    <t>i will not tolerate that</t>
+  </si>
+  <si>
+    <t>fallen in love</t>
+  </si>
+  <si>
+    <t>who do you think you are</t>
+  </si>
+  <si>
+    <t>love at first sight</t>
+  </si>
+  <si>
+    <t>are you out of your mind</t>
+  </si>
+  <si>
+    <t>love him with my whole heart and soul</t>
+  </si>
+  <si>
+    <t>what's wrong with you</t>
+  </si>
+  <si>
+    <t>love her with my whole heart and soul</t>
+  </si>
+  <si>
+    <t>what's your problem</t>
+  </si>
+  <si>
+    <t>cherish our memories</t>
+  </si>
+  <si>
+    <t>you never listen to me</t>
+  </si>
+  <si>
+    <t>all that i ever need is her</t>
+  </si>
+  <si>
+    <t>it's all your fault</t>
+  </si>
+  <si>
+    <t>you messed it up</t>
+  </si>
+  <si>
+    <t>you are impossible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that makes no point </t>
+  </si>
+  <si>
+    <t>you are weird</t>
+  </si>
+  <si>
+    <t>keep your nose out</t>
+  </si>
+  <si>
+    <t>none of your business</t>
+  </si>
+  <si>
+    <t>stay out of it</t>
+  </si>
+  <si>
+    <t>keep away</t>
+  </si>
+  <si>
+    <t>i am fed up with it</t>
+  </si>
+  <si>
+    <t>just can't stand it</t>
+  </si>
+  <si>
+    <t>i hate it</t>
+  </si>
+  <si>
+    <t>i don't like it</t>
+  </si>
+  <si>
+    <t>i have never been so disappointed</t>
+  </si>
+  <si>
+    <t>you are fucked up</t>
+  </si>
+  <si>
+    <t>i’ve got a bone to pick with you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">don’t bite my head off  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">almost all parents blow their tops from time to time  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">i am cheesed off </t>
+  </si>
+  <si>
+    <t xml:space="preserve">you mad </t>
+  </si>
+  <si>
+    <t>screw it up</t>
+  </si>
+  <si>
+    <t>I am furious</t>
+  </si>
+  <si>
+    <t>I am very angry</t>
+  </si>
+  <si>
+    <t>I am feeling sad</t>
+  </si>
+  <si>
+    <t>I am feeling angry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +943,31 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF58595B"/>
+      <name val="Avenir LT W01 45 Book"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF58595B"/>
+      <name val="Avenir LT W01 45 Book"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,9 +990,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,25 +1318,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1AEE9F-440D-4368-8531-BB4EF52B89F2}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="49.109375" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
-    <col min="5" max="5" width="41.21875" customWidth="1"/>
+    <col min="1" max="1" width="60.44140625" customWidth="1"/>
+    <col min="2" max="2" width="75.6640625" customWidth="1"/>
+    <col min="3" max="3" width="116.6640625" customWidth="1"/>
+    <col min="4" max="4" width="105.88671875" customWidth="1"/>
+    <col min="5" max="5" width="104.5546875" customWidth="1"/>
     <col min="6" max="6" width="24.109375" customWidth="1"/>
     <col min="7" max="7" width="48.33203125" customWidth="1"/>
-    <col min="9" max="9" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="73.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,88 +1349,1872 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/emotions.xlsx
+++ b/emotions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Udyan Sharma\Documents\GitHub\python-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B39800-56E6-43FF-850E-23A2CFB7EF80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF76C7F-DB1B-4CC8-AEF9-EFF887B1D815}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" xr2:uid="{2193F49B-5B81-4659-942C-083E23AF7CBB}"/>
   </bookViews>
@@ -504,9 +504,6 @@
     <t>you have no brains to understand</t>
   </si>
   <si>
-    <t>the mood in their is one of disbleif and of great sadness as well</t>
-  </si>
-  <si>
     <t>Tell me whom you love and I will tell you who you are</t>
   </si>
   <si>
@@ -922,6 +919,9 @@
   </si>
   <si>
     <t>I am feeling angry</t>
+  </si>
+  <si>
+    <t>the mood in their is one of disbelief and of sadness as well</t>
   </si>
 </sst>
 </file>
@@ -1320,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1AEE9F-440D-4368-8531-BB4EF52B89F2}">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>24</v>
@@ -2051,13 +2051,13 @@
         <v>158</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -2074,10 +2074,10 @@
         <v>106</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -2088,16 +2088,16 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -2108,16 +2108,16 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="C36" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -2128,16 +2128,16 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="C37" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -2148,16 +2148,16 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="C38" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -2168,16 +2168,16 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="C39" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -2188,16 +2188,16 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="C40" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -2208,16 +2208,16 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -2228,16 +2228,16 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="C42" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -2251,13 +2251,13 @@
         <v>60</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -2271,13 +2271,13 @@
         <v>65</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -2291,10 +2291,10 @@
         <v>70</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -2309,10 +2309,10 @@
         <v>75</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -2324,13 +2324,13 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="C47" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -2342,13 +2342,13 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="C48" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -2360,13 +2360,13 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -2378,13 +2378,13 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -2396,13 +2396,13 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -2414,13 +2414,13 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -2432,13 +2432,13 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -2450,13 +2450,13 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -2468,13 +2468,13 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -2486,11 +2486,11 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -2502,11 +2502,11 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -2518,11 +2518,11 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -2534,11 +2534,11 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -2550,11 +2550,11 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -2566,11 +2566,11 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -2582,11 +2582,11 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -2598,11 +2598,11 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -2614,11 +2614,11 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -2630,11 +2630,11 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -2646,11 +2646,11 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -2662,11 +2662,11 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -2678,11 +2678,11 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -2694,11 +2694,11 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -2710,11 +2710,11 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -2726,11 +2726,11 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -2742,11 +2742,11 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -2758,11 +2758,11 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -2774,11 +2774,11 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -2790,11 +2790,11 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -2806,11 +2806,11 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4" t="s">
@@ -2838,7 +2838,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -2992,7 +2992,7 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -3062,7 +3062,7 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -3076,7 +3076,7 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -3090,7 +3090,7 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -3104,7 +3104,7 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>

--- a/emotions.xlsx
+++ b/emotions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Udyan Sharma\Documents\GitHub\python-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF76C7F-DB1B-4CC8-AEF9-EFF887B1D815}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519B2DE5-B9B1-455C-8459-3223E155C665}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" xr2:uid="{2193F49B-5B81-4659-942C-083E23AF7CBB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="399">
   <si>
     <t>Angry</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Response_Joy</t>
   </si>
   <si>
-    <t>I am angry</t>
-  </si>
-  <si>
     <t>I am sad</t>
   </si>
   <si>
@@ -72,7 +69,7 @@
     <t>I'm happy</t>
   </si>
   <si>
-    <t>relax lets figure it out</t>
+    <t>Relax lets figure it out</t>
   </si>
   <si>
     <t>I'm so sorry to hear that. Is there any way I can help?</t>
@@ -99,6 +96,21 @@
     <t>It's a great day today</t>
   </si>
   <si>
+    <t xml:space="preserve">Okay but calm down first </t>
+  </si>
+  <si>
+    <t>Every 60 seconds you spend upset is a minute of happiness you will never get back!</t>
+  </si>
+  <si>
+    <t>That's great. I am glad that you are with someone special</t>
+  </si>
+  <si>
+    <t>You should not be afraid of anything. Fear is just a myth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am happy to see you happy ! </t>
+  </si>
+  <si>
     <t>It is so bad</t>
   </si>
   <si>
@@ -111,6 +123,21 @@
     <t>I got good marks today</t>
   </si>
   <si>
+    <t xml:space="preserve">I hear what you are saying </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Come on, Cheer up! </t>
+  </si>
+  <si>
+    <t>I am glad to hear this !</t>
+  </si>
+  <si>
+    <t>Don't worry, I am always with you. You have nothing to fear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your happiness has filled the air with postive vibes indeed ! </t>
+  </si>
+  <si>
     <t>angry</t>
   </si>
   <si>
@@ -123,6 +150,24 @@
     <t>scare the hell out of me</t>
   </si>
   <si>
+    <t>have a pleasent day</t>
+  </si>
+  <si>
+    <t>Leave all this, its okay! Infact I suggest you to direct your anger towards your passion to achieve great heights</t>
+  </si>
+  <si>
+    <t>I know its difficult to have a clear sense of mind right now but remember this, life is 10% what happens to you &amp; 90% how you react to it.</t>
+  </si>
+  <si>
+    <t>What should I say? I have never experienced it before.</t>
+  </si>
+  <si>
+    <t>Cheer up and forget it.</t>
+  </si>
+  <si>
+    <t>You have made even my mood jolly today !</t>
+  </si>
+  <si>
     <t>it makes me furious</t>
   </si>
   <si>
@@ -135,7 +180,22 @@
     <t>give me goose bump</t>
   </si>
   <si>
-    <t>have a pleasent day</t>
+    <t>have a good day mate</t>
+  </si>
+  <si>
+    <t>Oh I am glad you shared all this with me , as I know anger eats you up from inside !  So you can let it out here :)</t>
+  </si>
+  <si>
+    <t>I hear you. And I’m right here with you.</t>
+  </si>
+  <si>
+    <t>It is amazing to hear that.</t>
+  </si>
+  <si>
+    <t>Hey control your mind, don't let it control you!</t>
+  </si>
+  <si>
+    <t>May your  soul keeps smiling like this forever !</t>
   </si>
   <si>
     <t>you definitely are mad</t>
@@ -150,7 +210,22 @@
     <t>send shivers down my spine</t>
   </si>
   <si>
-    <t>have a good day mate</t>
+    <t>finally a pleasent day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok I get it but chill ! </t>
+  </si>
+  <si>
+    <t>I know you’re having such a hard time with this, I feel soo bad about it!</t>
+  </si>
+  <si>
+    <t>Oh my god that's lovely !</t>
+  </si>
+  <si>
+    <t>Repeat this with me: I trust myself. I can handle whatever arises in this situation.</t>
+  </si>
+  <si>
+    <t>I’m really delighted for you</t>
   </si>
   <si>
     <t>i am doomed</t>
@@ -162,7 +237,22 @@
     <t>getting 0 out of 10</t>
   </si>
   <si>
-    <t>finally a pleasent fucking day</t>
+    <t>oh goddie</t>
+  </si>
+  <si>
+    <t>Don't waste your time in anger , worries and grudges . Life is too short to be unhappy !</t>
+  </si>
+  <si>
+    <t>I’m sorry you’re hurting so much</t>
+  </si>
+  <si>
+    <t>I am soo happy about this !</t>
+  </si>
+  <si>
+    <t>I might not understand what you’re going through, but I’m always here for you to talk to me if you need to</t>
+  </si>
+  <si>
+    <t>The joy of your heart has made the faces merry !</t>
   </si>
   <si>
     <t>nothing is possible</t>
@@ -174,7 +264,22 @@
     <t>studies show that one of the greatest fears of the elderly is that they might become dependent on others</t>
   </si>
   <si>
-    <t>oh goddie</t>
+    <t>that is very nice</t>
+  </si>
+  <si>
+    <t>Be wise , you can't control things that happen to you but you can control your reactions to them .</t>
+  </si>
+  <si>
+    <t>Maybe I can’t be there, but there’s definitely something I can do. Whatever it is, let me know</t>
+  </si>
+  <si>
+    <t>May god makes this bond eternal !</t>
+  </si>
+  <si>
+    <t>I’m always here if you need to talk</t>
+  </si>
+  <si>
+    <t>May the joy and happiness surround  you today and always.</t>
   </si>
   <si>
     <t>i am pissed off</t>
@@ -189,7 +294,22 @@
     <t>the feeling of lossing to someone</t>
   </si>
   <si>
-    <t>that is very nice</t>
+    <t>pleased as punch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calm down .Take a deep breath and then hold it for about sixty seconds </t>
+  </si>
+  <si>
+    <t>This happens to everyone but not everyone deals with it as well as you . I am proud of you !</t>
+  </si>
+  <si>
+    <t>That's beautiful , and indeed its a bliss to get such a wonderful person like you !</t>
+  </si>
+  <si>
+    <t>What can I do to help right now?</t>
+  </si>
+  <si>
+    <t>I am pleased as punch to hear you today !</t>
   </si>
   <si>
     <t>stop!  now i am seething with rage</t>
@@ -204,7 +324,22 @@
     <t>the fear of getting picked up on the class</t>
   </si>
   <si>
-    <t>pleased as punch</t>
+    <t>good day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control your emotions or it will control you and make the situation even worse ! </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I want you to know that I'm so proud of how you’ve been balancing everything lately under so much pressure. You inspire me each and every day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May this love last forever </t>
+  </si>
+  <si>
+    <t>Remember, today is the tomorrow you worried about yesterday</t>
+  </si>
+  <si>
+    <t>I guess ordering your favrouite food right now will escalte  the vibe even more !</t>
   </si>
   <si>
     <t>i am livid right now</t>
@@ -219,7 +354,22 @@
     <t>the old man felt dread instantly after seeing those thiefs</t>
   </si>
   <si>
-    <t>good day</t>
+    <t>what a good day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i hear what you are saying </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I know you’ve got a lot on your plate right now, but I can promise you this: It’s going to get better.</t>
+  </si>
+  <si>
+    <t>I am happy to hear that , may you stay happy like this always !</t>
+  </si>
+  <si>
+    <t>Worrying does not empty tomorrow of its troubles, it empties today of its strength</t>
+  </si>
+  <si>
+    <t>I sense a cool vibe right now , how about playing some music ?</t>
   </si>
   <si>
     <t>i lost my rag when the traffic warden gave me a ticket</t>
@@ -234,7 +384,19 @@
     <t>mummy</t>
   </si>
   <si>
-    <t>what a good day</t>
+    <t>it's so good to see you</t>
+  </si>
+  <si>
+    <t>You sound frustrated.  What’s that about?</t>
+  </si>
+  <si>
+    <t>Is there anything I can do to make your life easier right now?</t>
+  </si>
+  <si>
+    <t>That's soo cute !</t>
+  </si>
+  <si>
+    <t>Let me know if you just want me to be with you, even if I can’t do anything specifically helpful</t>
   </si>
   <si>
     <t>i blew my top when the traffic warden gave me a ticket</t>
@@ -249,7 +411,19 @@
     <t>good god</t>
   </si>
   <si>
-    <t>it's so good to see you</t>
+    <t>in seventh heaven</t>
+  </si>
+  <si>
+    <t>Seems like you need to talk. I’m all ears.</t>
+  </si>
+  <si>
+    <t>Don't worry , it's just  a phase , it will pass soon :)</t>
+  </si>
+  <si>
+    <t>You are soo lucky to experience such  a adorable and pure love !</t>
+  </si>
+  <si>
+    <t>Your feelings are valid</t>
   </si>
   <si>
     <t>i lost my temper</t>
@@ -264,7 +438,19 @@
     <t>that thing appeared out of nowhere and i got chills right away</t>
   </si>
   <si>
-    <t>in seventh heaven</t>
+    <t>over the moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take a chill pill dude </t>
+  </si>
+  <si>
+    <t>It is okay to have bad days, you will sail through like a pro!</t>
+  </si>
+  <si>
+    <t>I can feel the serene love in your words  , its  beautiful !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I suggest you to take a deep breath , relax and drink something that will comfort you </t>
   </si>
   <si>
     <t>shut your mouth</t>
@@ -279,7 +465,13 @@
     <t>i'm not afraid of death; i just don't want to be there when it happens</t>
   </si>
   <si>
-    <t>over the moon</t>
+    <t>grinning from ear to ear</t>
+  </si>
+  <si>
+    <t>Hey forget all this all Watch a movie and treat yourself with your favorite food!</t>
+  </si>
+  <si>
+    <t>I am soo happy for u , now never forget to hold eachother even in the  most difficult times !</t>
   </si>
   <si>
     <t>stand by what you said</t>
@@ -294,7 +486,19 @@
     <t>fear doesn't shut you down; it wakes you up</t>
   </si>
   <si>
-    <t>grinning from ear to ear</t>
+    <t>i cherish</t>
+  </si>
+  <si>
+    <t>Let’s take three deep breaths together</t>
+  </si>
+  <si>
+    <t>You are the strongest one I know, this too shall pass.</t>
+  </si>
+  <si>
+    <t>Omg  someone is really crushing on someone here !</t>
+  </si>
+  <si>
+    <t>Be a warrior, not a worrier</t>
   </si>
   <si>
     <t>the ball is in my court</t>
@@ -309,7 +513,19 @@
     <t>fear of a name increases fear of the thing itself</t>
   </si>
   <si>
-    <t>i cherish</t>
+    <t>i can't believe it</t>
+  </si>
+  <si>
+    <t>Talk to me about it and let it all out.</t>
+  </si>
+  <si>
+    <t>You don’t need to explain yourself to anyone, including me</t>
+  </si>
+  <si>
+    <t>That's soo sweet , indeed its soo lucky  to have such a precious soul like you in someone's life !</t>
+  </si>
+  <si>
+    <t>Don't let the fear inside you grow , remember , the more you feed it, the stronger it grows.</t>
   </si>
   <si>
     <t>you can't win</t>
@@ -324,7 +540,16 @@
     <t>expose yourself to your deepest fear after that fear has no power and the fear of freedom shrinks and vanishes you are free</t>
   </si>
   <si>
-    <t>i can't believe it</t>
+    <t>i am very delighted</t>
+  </si>
+  <si>
+    <t>Focus on the postive and soon the negative will disappear .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wow ! , I think it will really be a great idea to plan something fun and lovely to take this on another level </t>
+  </si>
+  <si>
+    <t>Don't worry I am here with you becuase I know ,  when everything is hanging out of balance, a bit of normality is a beautiful thing.</t>
   </si>
   <si>
     <t>i will show you your place</t>
@@ -339,7 +564,13 @@
     <t>don't give in to your fears if you do you won't be able to talk to your heart</t>
   </si>
   <si>
-    <t>i am very delighted</t>
+    <t>congratulations</t>
+  </si>
+  <si>
+    <t>Hey , Put on a happy face!</t>
+  </si>
+  <si>
+    <t>Lovely , now I guess you can do something special to make this bond  more stronger !</t>
   </si>
   <si>
     <t>not in your dreams</t>
@@ -354,7 +585,10 @@
     <t>no one ever told me that grief felt so like fear</t>
   </si>
   <si>
-    <t>congratulations</t>
+    <t>back on your feet</t>
+  </si>
+  <si>
+    <t>All I can feel right now is , you two are actually made for each other !</t>
   </si>
   <si>
     <t>shame on you</t>
@@ -369,7 +603,10 @@
     <t>cared is what you're feeling brave is what you're doing</t>
   </si>
   <si>
-    <t>back on your feet</t>
+    <t>happy as a clam</t>
+  </si>
+  <si>
+    <t>Your love sounds to be the perfect defination of love that could exist ever !</t>
   </si>
   <si>
     <t>no guilt at all</t>
@@ -384,7 +621,10 @@
     <t>It is extremely scary</t>
   </si>
   <si>
-    <t>happy as a clam</t>
+    <t>jaw dropping</t>
+  </si>
+  <si>
+    <t>I must say , you guys embrace each others souls !</t>
   </si>
   <si>
     <t>that's what you are</t>
@@ -399,7 +639,10 @@
     <t>that horror movie scared me</t>
   </si>
   <si>
-    <t>jaw dropping</t>
+    <t>best day ever</t>
+  </si>
+  <si>
+    <t>Love indeed is in the air !</t>
   </si>
   <si>
     <t>that's your trait</t>
@@ -414,7 +657,7 @@
     <t>I'm not afraid of death; i just don't want to be there when it happens</t>
   </si>
   <si>
-    <t>best day ever</t>
+    <t>I feel the the destiny has finally made a perfect match !</t>
   </si>
   <si>
     <t>that's your character</t>
@@ -429,6 +672,9 @@
     <t xml:space="preserve"> scared me to half death</t>
   </si>
   <si>
+    <t>You two clearly seem to ace all those couple goals soon ! , I am really happy about this .</t>
+  </si>
+  <si>
     <t>choose your nook</t>
   </si>
   <si>
@@ -441,6 +687,9 @@
     <t xml:space="preserve">terrifying </t>
   </si>
   <si>
+    <t xml:space="preserve">You are a match made in heaven ! </t>
+  </si>
+  <si>
     <t>don't be seen</t>
   </si>
   <si>
@@ -453,6 +702,9 @@
     <t xml:space="preserve">shivers down my spine </t>
   </si>
   <si>
+    <t>The new Romeo and juliet have arrived !</t>
+  </si>
+  <si>
     <t>you can't be loved</t>
   </si>
   <si>
@@ -465,6 +717,9 @@
     <t>the hairs on the back of my neck stand up</t>
   </si>
   <si>
+    <t>That's the most cutest thing I have ever heard !</t>
+  </si>
+  <si>
     <t>that's the end</t>
   </si>
   <si>
@@ -477,6 +732,9 @@
     <t xml:space="preserve">afraid </t>
   </si>
   <si>
+    <t>You make me feel that true love still exists !</t>
+  </si>
+  <si>
     <t>enough</t>
   </si>
   <si>
@@ -489,6 +747,9 @@
     <t>heebie jeebie</t>
   </si>
   <si>
+    <t>Stay blessed and be happy like this forever !</t>
+  </si>
+  <si>
     <t>leave it</t>
   </si>
   <si>
@@ -501,21 +762,33 @@
     <t xml:space="preserve">jumped out of my skin </t>
   </si>
   <si>
+    <t>Seriously my heart melts listening your true love !</t>
+  </si>
+  <si>
     <t>you have no brains to understand</t>
   </si>
   <si>
+    <t>the mood in their is one of disbleif and of great sadness as well</t>
+  </si>
+  <si>
     <t>Tell me whom you love and I will tell you who you are</t>
   </si>
   <si>
     <t>heart missed a beat</t>
   </si>
   <si>
+    <t>Thta's what I call a perfect match !</t>
+  </si>
+  <si>
     <t>trust your intuition and be guided by love</t>
   </si>
   <si>
     <t>scared out of my wits</t>
   </si>
   <si>
+    <t>Great to know that you have found such love and warmth !</t>
+  </si>
+  <si>
     <t>stay in your limits</t>
   </si>
   <si>
@@ -528,6 +801,9 @@
     <t xml:space="preserve">scared the living daylights out of me </t>
   </si>
   <si>
+    <t>Thanks for enlightening me about the meaning of real love !</t>
+  </si>
+  <si>
     <t>you are in the red zone</t>
   </si>
   <si>
@@ -540,6 +816,9 @@
     <t xml:space="preserve">quaking in my boots </t>
   </si>
   <si>
+    <t xml:space="preserve">Sending lots of love and wishes to you guys  ! </t>
+  </si>
+  <si>
     <t>children make the teacher hot under the collar</t>
   </si>
   <si>
@@ -552,6 +831,9 @@
     <t xml:space="preserve">scared stiff </t>
   </si>
   <si>
+    <t>The cutest couple of the year !</t>
+  </si>
+  <si>
     <t xml:space="preserve">it makes me furious </t>
   </si>
   <si>
@@ -564,6 +846,9 @@
     <t xml:space="preserve">batten down the hatches </t>
   </si>
   <si>
+    <t>Keep shining , with your love .</t>
+  </si>
+  <si>
     <t xml:space="preserve">you definitely are mad </t>
   </si>
   <si>
@@ -576,6 +861,9 @@
     <t xml:space="preserve">dicey situation </t>
   </si>
   <si>
+    <t>You two are a romance novel and travel pamphlet all rolled into one.</t>
+  </si>
+  <si>
     <t>this upsets me</t>
   </si>
   <si>
@@ -588,6 +876,9 @@
     <t>risk life</t>
   </si>
   <si>
+    <t>Seeing you two together is like watching a Disney movie in real life !</t>
+  </si>
+  <si>
     <t xml:space="preserve"> i am pissed off </t>
   </si>
   <si>
@@ -600,6 +891,9 @@
     <t>scare the pants off</t>
   </si>
   <si>
+    <t>You two make me believe in happily ever after.</t>
+  </si>
+  <si>
     <t xml:space="preserve">stop!  now i am seething with rage </t>
   </si>
   <si>
@@ -612,6 +906,9 @@
     <t>cold sweat</t>
   </si>
   <si>
+    <t>I’m going to drink a glass of wine in honor of you two.</t>
+  </si>
+  <si>
     <t xml:space="preserve">I feel like going away </t>
   </si>
   <si>
@@ -621,6 +918,9 @@
     <t>heart in my mouth</t>
   </si>
   <si>
+    <t>I must be the Grinch, because my heart just grew three sizes listenig about the epic love !</t>
+  </si>
+  <si>
     <t>I feel so lonely</t>
   </si>
   <si>
@@ -630,12 +930,18 @@
     <t xml:space="preserve">heart sinking </t>
   </si>
   <si>
+    <t xml:space="preserve">You guys complete each other in true sense </t>
+  </si>
+  <si>
     <t xml:space="preserve">weeping </t>
   </si>
   <si>
     <t>love is an ocean of emotions entirely surrounded by expenses.</t>
   </si>
   <si>
+    <t>The best thing to hold onto in life is each other.</t>
+  </si>
+  <si>
     <t xml:space="preserve">facing problems </t>
   </si>
   <si>
@@ -777,7 +1083,7 @@
     <t xml:space="preserve">you are rude </t>
   </si>
   <si>
-    <t>touched my soul</t>
+    <t xml:space="preserve"> touched my soul   </t>
   </si>
   <si>
     <t>don't mess</t>
@@ -909,26 +1215,20 @@
     <t>screw it up</t>
   </si>
   <si>
-    <t>I am furious</t>
-  </si>
-  <si>
-    <t>I am very angry</t>
-  </si>
-  <si>
-    <t>I am feeling sad</t>
-  </si>
-  <si>
-    <t>I am feeling angry</t>
-  </si>
-  <si>
-    <t>the mood in their is one of disbelief and of sadness as well</t>
+    <t>i am angry</t>
+  </si>
+  <si>
+    <t>i am furious</t>
+  </si>
+  <si>
+    <t>i am very angry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -969,6 +1269,18 @@
       <name val="Avenir LT W01 45 Book"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Lato"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -990,7 +1302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1002,6 +1314,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1320,8 +1641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1AEE9F-440D-4368-8531-BB4EF52B89F2}">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1330,12 +1651,12 @@
     <col min="2" max="2" width="75.6640625" customWidth="1"/>
     <col min="3" max="3" width="116.6640625" customWidth="1"/>
     <col min="4" max="4" width="105.88671875" customWidth="1"/>
-    <col min="5" max="5" width="104.5546875" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.33203125" customWidth="1"/>
-    <col min="8" max="8" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="73.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" customWidth="1"/>
+    <col min="6" max="6" width="149.44140625" customWidth="1"/>
+    <col min="7" max="7" width="113.6640625" customWidth="1"/>
+    <col min="8" max="8" width="81.109375" customWidth="1"/>
+    <col min="9" max="9" width="141.33203125" customWidth="1"/>
+    <col min="10" max="10" width="68.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1372,965 +1693,1170 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>294</v>
+        <v>397</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>295</v>
+        <v>398</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+        <v>127</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+        <v>137</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+        <v>146</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" ht="17.399999999999999">
       <c r="A17" s="4" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+        <v>153</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+        <v>162</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+        <v>171</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>103</v>
+        <v>178</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4" t="s">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>187</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>112</v>
+        <v>190</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>199</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>124</v>
+        <v>204</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>205</v>
+      </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="H26" s="4" t="s">
+        <v>215</v>
+      </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="4" t="s">
-        <v>134</v>
+        <v>216</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="H27" s="4" t="s">
+        <v>220</v>
+      </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4" t="s">
-        <v>138</v>
+        <v>221</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>141</v>
+        <v>224</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="H28" s="4" t="s">
+        <v>225</v>
+      </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="4" t="s">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>143</v>
+        <v>227</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>144</v>
+        <v>228</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="H29" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="4" t="s">
-        <v>146</v>
+        <v>231</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>147</v>
+        <v>232</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>149</v>
+        <v>234</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="H30" s="4" t="s">
+        <v>235</v>
+      </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="4" t="s">
-        <v>150</v>
+        <v>236</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>151</v>
+        <v>237</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>152</v>
+        <v>238</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>153</v>
+        <v>239</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="H31" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="4" t="s">
-        <v>154</v>
+        <v>241</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>156</v>
+        <v>243</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>157</v>
+        <v>244</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="H32" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="4" t="s">
-        <v>158</v>
+        <v>246</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>298</v>
+        <v>247</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>159</v>
+        <v>248</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>160</v>
+        <v>249</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="H33" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="4" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>162</v>
+        <v>252</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="H34" s="4" t="s">
+        <v>253</v>
+      </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="4" t="s">
-        <v>163</v>
+        <v>254</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>164</v>
+        <v>255</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>165</v>
+        <v>256</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>166</v>
+        <v>257</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="H35" s="4" t="s">
+        <v>258</v>
+      </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="4" t="s">
-        <v>167</v>
+        <v>259</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>168</v>
+        <v>260</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>169</v>
+        <v>261</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>170</v>
+        <v>262</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="H36" s="4" t="s">
+        <v>263</v>
+      </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4" t="s">
-        <v>171</v>
+        <v>264</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>173</v>
+        <v>266</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>174</v>
+        <v>267</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
+      <c r="H37" s="4" t="s">
+        <v>268</v>
+      </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="4" t="s">
-        <v>175</v>
+        <v>269</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>176</v>
+        <v>270</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>177</v>
+        <v>271</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>178</v>
+        <v>272</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="H38" s="4" t="s">
+        <v>273</v>
+      </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="4" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>181</v>
+        <v>276</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>182</v>
+        <v>277</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
+      <c r="H39" s="4" t="s">
+        <v>278</v>
+      </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="4" t="s">
-        <v>183</v>
+        <v>279</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>184</v>
+        <v>280</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>185</v>
+        <v>281</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>186</v>
+        <v>282</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="H40" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="4" t="s">
-        <v>187</v>
+        <v>284</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>188</v>
+        <v>285</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>189</v>
+        <v>286</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>190</v>
+        <v>287</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
+      <c r="H41" s="4" t="s">
+        <v>288</v>
+      </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="4" t="s">
-        <v>191</v>
+        <v>289</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>192</v>
+        <v>290</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>193</v>
+        <v>291</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>194</v>
+        <v>292</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
+      <c r="H42" s="4" t="s">
+        <v>293</v>
+      </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="4" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>195</v>
+        <v>294</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>197</v>
+        <v>296</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
+      <c r="H43" s="4" t="s">
+        <v>297</v>
+      </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="4" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>199</v>
+        <v>299</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
+      <c r="H44" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" ht="17.399999999999999">
       <c r="A45" s="4" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>201</v>
+        <v>302</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>202</v>
+        <v>303</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
+      <c r="H45" s="7" t="s">
+        <v>304</v>
+      </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="4" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>203</v>
+        <v>305</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>204</v>
+        <v>306</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="4" t="s">
-        <v>205</v>
+        <v>307</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>206</v>
+        <v>308</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>207</v>
+        <v>309</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -2342,13 +2868,13 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="4" t="s">
-        <v>208</v>
+        <v>310</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>209</v>
+        <v>311</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>210</v>
+        <v>312</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -2360,13 +2886,13 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="4" t="s">
-        <v>211</v>
+        <v>313</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>212</v>
+        <v>314</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>213</v>
+        <v>315</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -2378,13 +2904,13 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="4" t="s">
-        <v>214</v>
+        <v>316</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>216</v>
+        <v>318</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -2396,13 +2922,13 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="4" t="s">
-        <v>217</v>
+        <v>319</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>218</v>
+        <v>320</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>219</v>
+        <v>321</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -2414,13 +2940,13 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="4" t="s">
-        <v>220</v>
+        <v>322</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>221</v>
+        <v>323</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>222</v>
+        <v>324</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -2432,13 +2958,13 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="4" t="s">
-        <v>223</v>
+        <v>325</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>224</v>
+        <v>326</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>225</v>
+        <v>327</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -2450,13 +2976,13 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="4" t="s">
-        <v>226</v>
+        <v>328</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>227</v>
+        <v>329</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>228</v>
+        <v>330</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -2468,13 +2994,10 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>230</v>
+        <v>332</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -2486,11 +3009,11 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="4" t="s">
-        <v>231</v>
+        <v>333</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="2" t="s">
-        <v>232</v>
+        <v>334</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -2502,11 +3025,11 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="4" t="s">
-        <v>233</v>
+        <v>335</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="2" t="s">
-        <v>234</v>
+        <v>336</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -2518,11 +3041,11 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="4" t="s">
-        <v>235</v>
+        <v>337</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="3" t="s">
-        <v>236</v>
+        <v>338</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -2534,11 +3057,11 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="4" t="s">
-        <v>237</v>
+        <v>339</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4" t="s">
-        <v>238</v>
+        <v>340</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -2550,11 +3073,11 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="4" t="s">
-        <v>239</v>
+        <v>341</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4" t="s">
-        <v>240</v>
+        <v>342</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -2566,11 +3089,11 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="4" t="s">
-        <v>241</v>
+        <v>343</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4" t="s">
-        <v>242</v>
+        <v>344</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -2582,11 +3105,11 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="4" t="s">
-        <v>243</v>
+        <v>345</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4" t="s">
-        <v>244</v>
+        <v>346</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -2598,11 +3121,11 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="4" t="s">
-        <v>245</v>
+        <v>347</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4" t="s">
-        <v>246</v>
+        <v>348</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -2614,11 +3137,11 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="4" t="s">
-        <v>247</v>
+        <v>349</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4" t="s">
-        <v>248</v>
+        <v>350</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -2630,11 +3153,11 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="4" t="s">
-        <v>249</v>
+        <v>351</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4" t="s">
-        <v>250</v>
+        <v>352</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -2646,11 +3169,11 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="4" t="s">
-        <v>251</v>
+        <v>353</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4" t="s">
-        <v>252</v>
+        <v>354</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -2662,11 +3185,11 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="4" t="s">
-        <v>253</v>
+        <v>355</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4" t="s">
-        <v>254</v>
+        <v>356</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -2678,11 +3201,11 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="4" t="s">
-        <v>255</v>
+        <v>357</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4" t="s">
-        <v>256</v>
+        <v>358</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -2694,11 +3217,11 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="4" t="s">
-        <v>257</v>
+        <v>359</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4" t="s">
-        <v>258</v>
+        <v>360</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -2710,11 +3233,11 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="4" t="s">
-        <v>259</v>
+        <v>361</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4" t="s">
-        <v>260</v>
+        <v>362</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -2726,11 +3249,11 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="4" t="s">
-        <v>261</v>
+        <v>363</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4" t="s">
-        <v>262</v>
+        <v>364</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -2742,11 +3265,11 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="4" t="s">
-        <v>263</v>
+        <v>365</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4" t="s">
-        <v>264</v>
+        <v>366</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -2758,11 +3281,11 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="4" t="s">
-        <v>265</v>
+        <v>367</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4" t="s">
-        <v>266</v>
+        <v>368</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -2774,11 +3297,11 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="4" t="s">
-        <v>267</v>
+        <v>369</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4" t="s">
-        <v>268</v>
+        <v>370</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -2790,11 +3313,11 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="4" t="s">
-        <v>269</v>
+        <v>371</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4" t="s">
-        <v>270</v>
+        <v>372</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -2806,11 +3329,11 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="4" t="s">
-        <v>271</v>
+        <v>373</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4" t="s">
-        <v>272</v>
+        <v>374</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -2822,11 +3345,11 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="4" t="s">
-        <v>273</v>
+        <v>375</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -2838,7 +3361,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="4" t="s">
-        <v>274</v>
+        <v>376</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2852,7 +3375,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="4" t="s">
-        <v>275</v>
+        <v>377</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -2866,7 +3389,7 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="4" t="s">
-        <v>276</v>
+        <v>378</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -2880,7 +3403,7 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="4" t="s">
-        <v>277</v>
+        <v>379</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2894,7 +3417,7 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="4" t="s">
-        <v>278</v>
+        <v>380</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2908,7 +3431,7 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="4" t="s">
-        <v>279</v>
+        <v>381</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2922,7 +3445,7 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="4" t="s">
-        <v>280</v>
+        <v>382</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -2936,7 +3459,7 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="4" t="s">
-        <v>281</v>
+        <v>383</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -2950,7 +3473,7 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="4" t="s">
-        <v>282</v>
+        <v>384</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -2964,7 +3487,7 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="4" t="s">
-        <v>283</v>
+        <v>385</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -2978,7 +3501,7 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="4" t="s">
-        <v>284</v>
+        <v>386</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -2992,7 +3515,7 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="4" t="s">
-        <v>285</v>
+        <v>387</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -3006,7 +3529,7 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="4" t="s">
-        <v>286</v>
+        <v>388</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -3020,7 +3543,7 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="4" t="s">
-        <v>287</v>
+        <v>389</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -3034,7 +3557,7 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="4" t="s">
-        <v>288</v>
+        <v>390</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -3048,7 +3571,7 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="4" t="s">
-        <v>289</v>
+        <v>391</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -3062,7 +3585,7 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="4" t="s">
-        <v>290</v>
+        <v>392</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -3076,7 +3599,7 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="4" t="s">
-        <v>291</v>
+        <v>393</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -3090,7 +3613,7 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="4" t="s">
-        <v>292</v>
+        <v>394</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -3104,7 +3627,7 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="4" t="s">
-        <v>293</v>
+        <v>395</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -3117,9 +3640,7 @@
       <c r="J97" s="4"/>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="4" t="s">
-        <v>297</v>
-      </c>
+      <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -3131,9 +3652,7 @@
       <c r="J98" s="4"/>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
